--- a/html/resources/ioaConditions/train1P1Block11.xlsx
+++ b/html/resources/ioaConditions/train1P1Block11.xlsx
@@ -25,13 +25,13 @@
     <t>trainingaudio/27_pakapa1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/23_patoko2.wav</t>
+    <t>trainingaudio/15_kopota1.wav</t>
   </si>
   <si>
     <t>pngimages/27_kiwi.png</t>
   </si>
   <si>
-    <t>pngimages/23_lemon.png</t>
+    <t>pngimages/15_barrel.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/ioaConditions/train1P1Block11.xlsx
+++ b/html/resources/ioaConditions/train1P1Block11.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.wav</t>
+    <t>trainingaudio/27_pakapa1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.mp3</t>
   </si>
   <si>
     <t>pngimages/27_kiwi.png</t>

--- a/html/resources/ioaConditions/train1P1Block11.xlsx
+++ b/html/resources/ioaConditions/train1P1Block11.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/27_pakapa1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.mp3</t>
+    <t>trainingaudio/27_pakapa1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.ogg</t>
   </si>
   <si>
     <t>pngimages/27_kiwi.png</t>

--- a/html/resources/ioaConditions/train1P1Block11.xlsx
+++ b/html/resources/ioaConditions/train1P1Block11.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/27_pakapa1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.ogg</t>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.wav</t>
   </si>
   <si>
     <t>pngimages/27_kiwi.png</t>
